--- a/testdata/Odoodata.xlsx
+++ b/testdata/Odoodata.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="14205" windowHeight="5925"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="124519"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>testcaseID</t>
   </si>
@@ -34,13 +35,34 @@
   </si>
   <si>
     <t>diganta27</t>
+  </si>
+  <si>
+    <t>create customer_2</t>
+  </si>
+  <si>
+    <t>sandy</t>
+  </si>
+  <si>
+    <t>5A/36</t>
+  </si>
+  <si>
+    <t>nalanda</t>
+  </si>
+  <si>
+    <t>bihar</t>
+  </si>
+  <si>
+    <t>india</t>
+  </si>
+  <si>
+    <t>xyz@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -195,7 +217,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -230,7 +251,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -406,20 +426,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="4" customFormat="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -438,7 +460,7 @@
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -457,20 +479,42 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="1">
+        <v>803114</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="1">
+        <v>8987656766</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -483,7 +527,7 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -496,7 +540,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -509,7 +553,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -522,7 +566,7 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -535,7 +579,7 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -548,7 +592,7 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -561,7 +605,7 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -574,7 +618,7 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -587,7 +631,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -600,7 +644,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -613,7 +657,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -626,7 +670,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -639,7 +683,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -652,7 +696,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -668,30 +712,32 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="K3" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/testdata/Odoodata.xlsx
+++ b/testdata/Odoodata.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="15645" windowHeight="6435"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="125725"/>
+  <oleSize ref="A1:K20"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t>testcaseID</t>
   </si>
@@ -30,17 +31,41 @@
     <t>validLogin_ID</t>
   </si>
   <si>
-    <t>diganta.sdp@gmail.com</t>
-  </si>
-  <si>
-    <t>diganta27</t>
+    <t>nationalhighway</t>
+  </si>
+  <si>
+    <t>Delhi</t>
+  </si>
+  <si>
+    <t>Noida</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>ahtesham@gmail.com</t>
+  </si>
+  <si>
+    <t>Rock</t>
+  </si>
+  <si>
+    <t>createCustomer_ID</t>
+  </si>
+  <si>
+    <t>cool.sanu09@gmail.com</t>
+  </si>
+  <si>
+    <t>sanu123456</t>
+  </si>
+  <si>
+    <t>deletecustomer_ID</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -55,6 +80,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF222222"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -99,12 +130,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -195,7 +227,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -230,7 +261,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -406,20 +436,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18" customWidth="1"/>
     <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="4" customFormat="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -438,15 +472,15 @@
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -457,22 +491,48 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1100569</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="1">
+        <v>8116459188</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -483,7 +543,7 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -496,7 +556,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -509,7 +569,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -522,7 +582,7 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -535,7 +595,7 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -548,7 +608,7 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -561,7 +621,7 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -574,7 +634,7 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -587,7 +647,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -600,7 +660,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -613,7 +673,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -626,7 +686,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -639,7 +699,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -652,7 +712,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -667,31 +727,32 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="K3" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/testdata/Odoodata.xlsx
+++ b/testdata/Odoodata.xlsx
@@ -1,39 +1,88 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16965" windowHeight="2340"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>testcaseID</t>
-  </si>
-  <si>
-    <t>data1</t>
-  </si>
-  <si>
-    <t>data2</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>validLogin_ID</t>
   </si>
   <si>
-    <t>diganta.sdp@gmail.com</t>
-  </si>
-  <si>
-    <t>diganta27</t>
+    <t>createCustomer_ID</t>
+  </si>
+  <si>
+    <t>RAMAN</t>
+  </si>
+  <si>
+    <t>CustName</t>
+  </si>
+  <si>
+    <t>NH24</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>UP</t>
+  </si>
+  <si>
+    <t>Pincode</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Contact No.</t>
+  </si>
+  <si>
+    <t>Email Id</t>
+  </si>
+  <si>
+    <t>ramanraisaini@gmail.com</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>ramantesting3@gmail.com</t>
+  </si>
+  <si>
+    <t>rnf@1123</t>
+  </si>
+  <si>
+    <t>Ghz</t>
+  </si>
+  <si>
+    <t>Street</t>
+  </si>
+  <si>
+    <t>TestCaseID</t>
+  </si>
+  <si>
+    <t>deletecustomer_ID</t>
   </si>
 </sst>
 </file>
@@ -71,7 +120,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -94,17 +143,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -115,6 +176,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -163,7 +227,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -198,7 +262,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -407,46 +471,65 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="3"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -456,23 +539,51 @@
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
+      <c r="L2" s="1"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="1">
+        <v>201005</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="1">
+        <v>9650089974</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -482,8 +593,9 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L4" s="1"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -495,8 +607,9 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -508,8 +621,9 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L6" s="1"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -521,8 +635,9 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L7" s="1"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -534,8 +649,9 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L8" s="1"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -547,8 +663,9 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -560,8 +677,9 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L10" s="1"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -573,8 +691,9 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L11" s="1"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -586,8 +705,9 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L12" s="1"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -599,8 +719,9 @@
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L13" s="1"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -612,8 +733,9 @@
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L14" s="1"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -625,8 +747,9 @@
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L15" s="1"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -638,8 +761,9 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L16" s="1"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -651,8 +775,9 @@
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L17" s="1"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -664,10 +789,11 @@
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="K3" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/testdata/Odoodata.xlsx
+++ b/testdata/Odoodata.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="2472" windowWidth="18672" windowHeight="4104"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="124519"/>
+  <oleSize ref="A1:N26"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
   <si>
     <t>testcaseID</t>
   </si>
@@ -30,17 +31,74 @@
     <t>validLogin_ID</t>
   </si>
   <si>
-    <t>diganta.sdp@gmail.com</t>
-  </si>
-  <si>
-    <t>diganta27</t>
+    <t>Sector-14</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Meera.Chopra@gamil.com</t>
+  </si>
+  <si>
+    <t>data4</t>
+  </si>
+  <si>
+    <t>data3</t>
+  </si>
+  <si>
+    <t>data5</t>
+  </si>
+  <si>
+    <t>data6</t>
+  </si>
+  <si>
+    <t>data7</t>
+  </si>
+  <si>
+    <t>data8</t>
+  </si>
+  <si>
+    <t>data9</t>
+  </si>
+  <si>
+    <t>data10</t>
+  </si>
+  <si>
+    <t>NehruPlace</t>
+  </si>
+  <si>
+    <t>Delhi</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>CustomersInfo</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>pratap.ganesh27@gmail.com</t>
+  </si>
+  <si>
+    <t>create_customer_ID</t>
+  </si>
+  <si>
+    <t>delete_customer_ID</t>
+  </si>
+  <si>
+    <t>Meera</t>
+  </si>
+  <si>
+    <t>Ganesh</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,8 +161,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -195,7 +255,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -230,7 +289,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -406,47 +464,67 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:11" s="3" customFormat="1">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
+        <v>20</v>
+      </c>
+      <c r="C2" s="1">
+        <v>9755314363</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -457,24 +535,54 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="1">
+        <v>9755314363</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="1">
+        <v>201265</v>
+      </c>
+      <c r="J3" s="1">
+        <v>2415789944</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="1">
+        <v>9755314363</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -483,7 +591,7 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -496,7 +604,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -509,7 +617,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -522,7 +630,7 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -535,7 +643,7 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -548,7 +656,7 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -561,7 +669,7 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -574,7 +682,7 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -587,7 +695,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -600,7 +708,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -613,7 +721,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -626,7 +734,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -639,7 +747,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -652,7 +760,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -667,31 +775,69 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="K3" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2"/>
+    <hyperlink ref="B3" r:id="rId3"/>
+    <hyperlink ref="B4" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="13.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/testdata/Odoodata.xlsx
+++ b/testdata/Odoodata.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
   <si>
     <t>testcaseID</t>
   </si>
@@ -86,9 +86,6 @@
   </si>
   <si>
     <t>delete_customer_ID</t>
-  </si>
-  <si>
-    <t>Meera</t>
   </si>
   <si>
     <t>Ganesh</t>
@@ -546,7 +543,7 @@
         <v>9755314363</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>4</v>

--- a/testdata/Odoodata.xlsx
+++ b/testdata/Odoodata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="14205" windowHeight="5925"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="14610" windowHeight="2085"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,12 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1"/>
+  <oleSize ref="A1:J11"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="54">
   <si>
     <t>testcaseID</t>
   </si>
@@ -31,24 +31,12 @@
     <t>validLogin_ID</t>
   </si>
   <si>
-    <t>diganta.sdp@gmail.com</t>
-  </si>
-  <si>
-    <t>diganta27</t>
-  </si>
-  <si>
     <t>create customer_2</t>
   </si>
   <si>
-    <t>sandy</t>
-  </si>
-  <si>
     <t>5A/36</t>
   </si>
   <si>
-    <t>nalanda</t>
-  </si>
-  <si>
     <t>bihar</t>
   </si>
   <si>
@@ -56,12 +44,148 @@
   </si>
   <si>
     <t>xyz@gmail.com</t>
+  </si>
+  <si>
+    <t>sandeepjensenkcnit@gmail.com</t>
+  </si>
+  <si>
+    <t>delete customer_3</t>
+  </si>
+  <si>
+    <t>motu</t>
+  </si>
+  <si>
+    <t>803114</t>
+  </si>
+  <si>
+    <t>8987666766</t>
+  </si>
+  <si>
+    <t>1213910033</t>
+  </si>
+  <si>
+    <t>shivam-42</t>
+  </si>
+  <si>
+    <t>nalanda-85</t>
+  </si>
+  <si>
+    <t>shivam-81</t>
+  </si>
+  <si>
+    <t>nalanda-91</t>
+  </si>
+  <si>
+    <t>shivam-69</t>
+  </si>
+  <si>
+    <t>nalanda-98</t>
+  </si>
+  <si>
+    <t>shivam-94</t>
+  </si>
+  <si>
+    <t>nalanda-42</t>
+  </si>
+  <si>
+    <t>shivam-39</t>
+  </si>
+  <si>
+    <t>nalanda-21</t>
+  </si>
+  <si>
+    <t>shivam-98</t>
+  </si>
+  <si>
+    <t>nalanda-99</t>
+  </si>
+  <si>
+    <t>shivam-21</t>
+  </si>
+  <si>
+    <t>nalanda-41</t>
+  </si>
+  <si>
+    <t>shivam-33</t>
+  </si>
+  <si>
+    <t>nalanda-92</t>
+  </si>
+  <si>
+    <t>shivam-79</t>
+  </si>
+  <si>
+    <t>nalanda-30</t>
+  </si>
+  <si>
+    <t>shivam-70</t>
+  </si>
+  <si>
+    <t>shivam-27</t>
+  </si>
+  <si>
+    <t>nalanda-58</t>
+  </si>
+  <si>
+    <t>shivam-3</t>
+  </si>
+  <si>
+    <t>nalanda-61</t>
+  </si>
+  <si>
+    <t>shivam-75</t>
+  </si>
+  <si>
+    <t>nalanda-75</t>
+  </si>
+  <si>
+    <t>shivam-10</t>
+  </si>
+  <si>
+    <t>nalanda-37</t>
+  </si>
+  <si>
+    <t>shivam-61</t>
+  </si>
+  <si>
+    <t>nalanda-88</t>
+  </si>
+  <si>
+    <t>shivam-84</t>
+  </si>
+  <si>
+    <t>nalanda-52</t>
+  </si>
+  <si>
+    <t>nalanda-43</t>
+  </si>
+  <si>
+    <t>shivam-43</t>
+  </si>
+  <si>
+    <t>nalanda-66</t>
+  </si>
+  <si>
+    <t>shivam-60</t>
+  </si>
+  <si>
+    <t>nalanda-35</t>
+  </si>
+  <si>
+    <t>nalanda-56</t>
+  </si>
+  <si>
+    <t>shivam-2</t>
+  </si>
+  <si>
+    <t>nalanda-31</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -430,15 +554,18 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K1048576"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="30.5703125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="4" customFormat="1">
@@ -465,10 +592,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1213910033</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -481,44 +608,52 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="H3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="J3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="1" t="s">
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="1">
-        <v>803114</v>
-      </c>
-      <c r="I3" s="1" t="s">
+      <c r="C4" s="1">
+        <v>1213910033</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="1">
-        <v>8987656766</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -711,9 +846,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="K3" r:id="rId3"/>
+    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="K3" r:id="rId2"/>
+    <hyperlink ref="B2" r:id="rId3"/>
+    <hyperlink ref="B4" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/testdata/Odoodata.xlsx
+++ b/testdata/Odoodata.xlsx
@@ -1,46 +1,74 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="14835" windowHeight="3555"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="124519"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>testcaseID</t>
   </si>
   <si>
+    <t>validLogin_ID</t>
+  </si>
+  <si>
+    <t>CreateCustomer_ID</t>
+  </si>
+  <si>
+    <t>CreateOpportunityWithExitingCustomer_ID</t>
+  </si>
+  <si>
     <t>data1</t>
   </si>
   <si>
+    <t>pradeep@contentstudio.co.in</t>
+  </si>
+  <si>
     <t>data2</t>
   </si>
   <si>
-    <t>validLogin_ID</t>
-  </si>
-  <si>
-    <t>diganta.sdp@gmail.com</t>
-  </si>
-  <si>
-    <t>diganta27</t>
+    <t>Deep</t>
+  </si>
+  <si>
+    <t>fashion Street</t>
+  </si>
+  <si>
+    <t>normal Street</t>
+  </si>
+  <si>
+    <t>Delhi</t>
+  </si>
+  <si>
+    <t>Delhi(IN)</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>deep@gmail.com</t>
+  </si>
+  <si>
+    <t>500 Keyboard</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -54,7 +82,6 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -71,7 +98,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -79,31 +106,18 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -111,12 +125,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -195,7 +204,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -230,7 +238,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -406,292 +413,136 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="28.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="16.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="3"/>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>8527529100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>8527529100</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3">
+        <v>110049</v>
+      </c>
+      <c r="J3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3">
+        <v>7896541233</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
+      <c r="C4">
+        <v>8527529100</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4">
+        <v>10000</v>
+      </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
+    <row r="17" spans="8:8">
       <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B4" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2"/>
+    <hyperlink ref="B3" r:id="rId3"/>
+    <hyperlink ref="L3" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/testdata/Odoodata.xlsx
+++ b/testdata/Odoodata.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16470" windowHeight="3060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>testcaseID</t>
   </si>
@@ -30,10 +31,31 @@
     <t>validLogin_ID</t>
   </si>
   <si>
-    <t>diganta.sdp@gmail.com</t>
-  </si>
-  <si>
-    <t>diganta27</t>
+    <t>xyz@gmail.com</t>
+  </si>
+  <si>
+    <t>mohitjoe91@gmail.com</t>
+  </si>
+  <si>
+    <t>moejoe91</t>
+  </si>
+  <si>
+    <t>sharonH</t>
+  </si>
+  <si>
+    <t>54 th ave.</t>
+  </si>
+  <si>
+    <t>Lakecity</t>
+  </si>
+  <si>
+    <t>Minnesssota</t>
+  </si>
+  <si>
+    <t>usa</t>
+  </si>
+  <si>
+    <t>create customer_ID</t>
   </si>
 </sst>
 </file>
@@ -71,7 +93,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -94,17 +116,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -115,6 +149,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -163,7 +200,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -198,7 +235,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -410,13 +447,16 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -443,10 +483,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -458,17 +498,39 @@
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="1">
+        <v>252881</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="1">
+        <v>8987656766</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
@@ -667,7 +729,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="K3" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2"/>
+    <hyperlink ref="B3" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/testdata/Odoodata.xlsx
+++ b/testdata/Odoodata.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="2472" windowWidth="11820" windowHeight="3120"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="124519"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>testcaseID</t>
   </si>
@@ -30,17 +31,63 @@
     <t>validLogin_ID</t>
   </si>
   <si>
-    <t>diganta.sdp@gmail.com</t>
-  </si>
-  <si>
-    <t>diganta27</t>
+    <t xml:space="preserve">data3 </t>
+  </si>
+  <si>
+    <t>data4</t>
+  </si>
+  <si>
+    <t>data5</t>
+  </si>
+  <si>
+    <t>data6</t>
+  </si>
+  <si>
+    <t>createCustomer_ID</t>
+  </si>
+  <si>
+    <t>delhi</t>
+  </si>
+  <si>
+    <t>data7</t>
+  </si>
+  <si>
+    <t>sidkha9@gmail.com</t>
+  </si>
+  <si>
+    <t>testing</t>
+  </si>
+  <si>
+    <t>ashokvihar</t>
+  </si>
+  <si>
+    <t>shalimar</t>
+  </si>
+  <si>
+    <t>data8</t>
+  </si>
+  <si>
+    <t>9211865100</t>
+  </si>
+  <si>
+    <t>data9</t>
+  </si>
+  <si>
+    <t>abc2@gmail.com</t>
+  </si>
+  <si>
+    <t>harry-1</t>
+  </si>
+  <si>
+    <t>harry-12</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -50,6 +97,13 @@
     </font>
     <font>
       <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
@@ -99,12 +153,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -195,7 +251,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -230,7 +285,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -406,20 +460,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="17.0" collapsed="false"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="22.6640625" collapsed="false"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.0" collapsed="false"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="16.21875" collapsed="false"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="9.77734375" collapsed="false"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="11.0" collapsed="false"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="15.21875" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="4" customFormat="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -429,24 +488,38 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
+      <c r="D1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="K1" s="3"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -457,21 +530,43 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -483,7 +578,7 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -496,7 +591,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -509,7 +604,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -522,7 +617,7 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -535,7 +630,7 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -548,7 +643,7 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -561,7 +656,7 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -574,7 +669,7 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -587,7 +682,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -600,7 +695,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -613,7 +708,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -626,7 +721,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -639,7 +734,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -652,7 +747,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -668,30 +763,34 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2" display="abc12@gmail.com"/>
+    <hyperlink ref="B3" r:id="rId3"/>
+    <hyperlink ref="J3" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/testdata/Odoodata.xlsx
+++ b/testdata/Odoodata.xlsx
@@ -1,49 +1,107 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="15210" windowHeight="3570"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="verifysheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="124519"/>
+  <oleSize ref="A1:H20"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>testcaseID</t>
-  </si>
-  <si>
-    <t>data1</t>
-  </si>
-  <si>
-    <t>data2</t>
-  </si>
-  <si>
-    <t>validLogin_ID</t>
-  </si>
-  <si>
-    <t>diganta.sdp@gmail.com</t>
-  </si>
-  <si>
-    <t>diganta27</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+  <si>
+    <t>createCustomer_ID</t>
+  </si>
+  <si>
+    <t>abdulgates.786@gmail.com</t>
+  </si>
+  <si>
+    <t>abdul@123</t>
+  </si>
+  <si>
+    <t>AmitArora-1</t>
+  </si>
+  <si>
+    <t>AshokNagar</t>
+  </si>
+  <si>
+    <t>Delhi</t>
+  </si>
+  <si>
+    <t>delhi</t>
+  </si>
+  <si>
+    <t>7897860220</t>
+  </si>
+  <si>
+    <t>abdr123@gmail.com</t>
+  </si>
+  <si>
+    <t>dfdfdsf</t>
+  </si>
+  <si>
+    <t>AmitArora-147</t>
+  </si>
+  <si>
+    <t>AmitArora-194</t>
+  </si>
+  <si>
+    <t>AmitArora-119</t>
+  </si>
+  <si>
+    <t>AmitArora-11</t>
+  </si>
+  <si>
+    <t>AmitArora-128</t>
+  </si>
+  <si>
+    <t>AmitArora-113</t>
+  </si>
+  <si>
+    <t>AmitArora-159</t>
+  </si>
+  <si>
+    <t>AmitArora-129</t>
+  </si>
+  <si>
+    <t>AmitArora-131</t>
+  </si>
+  <si>
+    <t>AmitArora-160</t>
+  </si>
+  <si>
+    <t>AmitArora-182</t>
+  </si>
+  <si>
+    <t>AmitArora-120</t>
+  </si>
+  <si>
+    <t>AmitArora-130</t>
+  </si>
+  <si>
+    <t>AmitArora-142</t>
+  </si>
+  <si>
+    <t>AmitArora-121</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -54,24 +112,17 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -79,44 +130,25 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -195,7 +227,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -230,7 +261,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -406,292 +436,74 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="23.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="C2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/testdata/Odoodata.xlsx
+++ b/testdata/Odoodata.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14835" windowHeight="3465"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:K10"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
   <si>
     <t>testcaseID</t>
   </si>
@@ -30,16 +31,80 @@
     <t>validLogin_ID</t>
   </si>
   <si>
-    <t>diganta.sdp@gmail.com</t>
-  </si>
-  <si>
-    <t>diganta27</t>
+    <t>createCustomer_ID</t>
+  </si>
+  <si>
+    <t>data3</t>
+  </si>
+  <si>
+    <t>data4</t>
+  </si>
+  <si>
+    <t>data5</t>
+  </si>
+  <si>
+    <t>data6</t>
+  </si>
+  <si>
+    <t>data7</t>
+  </si>
+  <si>
+    <t>data8</t>
+  </si>
+  <si>
+    <t>street12</t>
+  </si>
+  <si>
+    <t>Noida</t>
+  </si>
+  <si>
+    <t>UttarPradesh</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>data9</t>
+  </si>
+  <si>
+    <t>data10</t>
+  </si>
+  <si>
+    <t>abc@gmail.com</t>
+  </si>
+  <si>
+    <t>pradeep7sah@gmail.com</t>
+  </si>
+  <si>
+    <t>sah5258u</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>prakash</t>
+  </si>
+  <si>
+    <t>Pradeep-11</t>
+  </si>
+  <si>
+    <t>Pradeep-575</t>
+  </si>
+  <si>
+    <t>deleteCustomer_ID</t>
+  </si>
+  <si>
+    <t>Pradeep-337</t>
+  </si>
+  <si>
+    <t>Pradeep-832</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -410,13 +475,17 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="25.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -429,24 +498,40 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
+      <c r="D1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -458,23 +543,53 @@
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="1">
+        <v>201301</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="1">
+        <v>8956231478</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
+      <c r="A4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -485,7 +600,9 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
+      <c r="B5" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -667,7 +784,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="K3" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -675,12 +792,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/testdata/Odoodata.xlsx
+++ b/testdata/Odoodata.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="15135" windowHeight="6510"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:I20"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t>testcaseID</t>
   </si>
@@ -30,10 +31,58 @@
     <t>validLogin_ID</t>
   </si>
   <si>
-    <t>diganta.sdp@gmail.com</t>
-  </si>
-  <si>
-    <t>diganta27</t>
+    <t>createCustomer_ID</t>
+  </si>
+  <si>
+    <t>street12</t>
+  </si>
+  <si>
+    <t>abc@gmail.com</t>
+  </si>
+  <si>
+    <t>data3</t>
+  </si>
+  <si>
+    <t>data4</t>
+  </si>
+  <si>
+    <t>data5</t>
+  </si>
+  <si>
+    <t>data6</t>
+  </si>
+  <si>
+    <t>data7</t>
+  </si>
+  <si>
+    <t>data8</t>
+  </si>
+  <si>
+    <t>gangwarprashant94@gmail.com</t>
+  </si>
+  <si>
+    <t>risecrm</t>
+  </si>
+  <si>
+    <t>Noida</t>
+  </si>
+  <si>
+    <t>Uttar Pradesh</t>
+  </si>
+  <si>
+    <t>data9</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>data10</t>
+  </si>
+  <si>
+    <t>Danny</t>
+  </si>
+  <si>
+    <t>deleteCustomer_ID</t>
   </si>
 </sst>
 </file>
@@ -99,12 +148,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -407,19 +462,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.140625" customWidth="1"/>
+    <col min="2" max="2" width="30.5703125" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" customWidth="1"/>
+    <col min="9" max="9" width="16.5703125" customWidth="1"/>
+    <col min="10" max="10" width="18.5703125" customWidth="1"/>
+    <col min="11" max="11" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -429,24 +492,40 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -457,24 +536,54 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="6">
+        <v>201301</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="6">
+        <v>9458041370</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -483,7 +592,7 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -496,7 +605,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -509,7 +618,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -522,7 +631,7 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -535,7 +644,7 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -548,7 +657,7 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -561,7 +670,7 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -574,7 +683,7 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -587,7 +696,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -600,7 +709,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -613,7 +722,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -626,7 +735,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -639,7 +748,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -652,7 +761,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -668,6 +777,9 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="I3" r:id="rId2" display="abc@gmail.com"/>
+    <hyperlink ref="B3" r:id="rId3"/>
+    <hyperlink ref="B4" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/testdata/Odoodata.xlsx
+++ b/testdata/Odoodata.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>testcaseID</t>
   </si>
@@ -58,13 +58,17 @@
     <t>sanu123456</t>
   </si>
   <si>
-    <t>deletecustomer_ID</t>
+    <t>Rock-26</t>
+  </si>
+  <si>
+    <t>Rock-26-820</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -130,13 +134,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -437,20 +442,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="24.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="22.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="4" customFormat="1">
@@ -491,7 +497,7 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" customFormat="1">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -502,7 +508,7 @@
         <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>4</v>
@@ -526,13 +532,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>9</v>
-      </c>
+    <row r="4" spans="1:11" customFormat="1">
+      <c r="A4" s="1"/>
+      <c r="B4" s="6"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -541,11 +543,11 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" spans="1:11" customFormat="1">
       <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
+      <c r="B5" s="5"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -556,7 +558,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" customFormat="1">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -569,7 +571,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" customFormat="1">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -582,7 +584,7 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" customFormat="1">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -595,7 +597,7 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" customFormat="1">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -608,7 +610,7 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" customFormat="1">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -621,7 +623,7 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" customFormat="1">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -634,7 +636,7 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" customFormat="1">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -647,7 +649,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" customFormat="1">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -660,7 +662,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" customFormat="1">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -673,7 +675,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" customFormat="1">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -686,7 +688,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" customFormat="1">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -699,7 +701,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" customFormat="1">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -712,7 +714,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" customFormat="1">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -724,6 +726,19 @@
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
+    </row>
+    <row r="19" spans="1:11" customFormat="1">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/testdata/Odoodata.xlsx
+++ b/testdata/Odoodata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2472" windowWidth="18672" windowHeight="4104"/>
+    <workbookView xWindow="0" yWindow="2472" windowWidth="18672" windowHeight="4356"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
   <si>
     <t>testcaseID</t>
   </si>
@@ -31,70 +31,77 @@
     <t>validLogin_ID</t>
   </si>
   <si>
+    <t>data4</t>
+  </si>
+  <si>
+    <t>data3</t>
+  </si>
+  <si>
+    <t>data5</t>
+  </si>
+  <si>
+    <t>data6</t>
+  </si>
+  <si>
+    <t>data7</t>
+  </si>
+  <si>
+    <t>data8</t>
+  </si>
+  <si>
+    <t>data9</t>
+  </si>
+  <si>
+    <t>data10</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>CustomersInfo</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>pratap.ganesh27@gmail.com</t>
+  </si>
+  <si>
+    <t>delete_customer_ID</t>
+  </si>
+  <si>
     <t>Sector-14</t>
   </si>
   <si>
+    <t>NehruPlace</t>
+  </si>
+  <si>
+    <t>Delhi</t>
+  </si>
+  <si>
     <t>India</t>
   </si>
   <si>
     <t>Meera.Chopra@gamil.com</t>
   </si>
   <si>
-    <t>data4</t>
-  </si>
-  <si>
-    <t>data3</t>
-  </si>
-  <si>
-    <t>data5</t>
-  </si>
-  <si>
-    <t>data6</t>
-  </si>
-  <si>
-    <t>data7</t>
-  </si>
-  <si>
-    <t>data8</t>
-  </si>
-  <si>
-    <t>data9</t>
-  </si>
-  <si>
-    <t>data10</t>
-  </si>
-  <si>
-    <t>NehruPlace</t>
-  </si>
-  <si>
-    <t>Delhi</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>CustomersInfo</t>
-  </si>
-  <si>
-    <t>address</t>
-  </si>
-  <si>
-    <t>pratap.ganesh27@gmail.com</t>
-  </si>
-  <si>
     <t>create_customer_ID</t>
   </si>
   <si>
-    <t>delete_customer_ID</t>
-  </si>
-  <si>
-    <t>Ganesh</t>
+    <t>create_salesteam_ID</t>
+  </si>
+  <si>
+    <t>Meera</t>
+  </si>
+  <si>
+    <t>Meera-929</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -465,17 +472,21 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="18.44140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="25.109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="14.44140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="10.109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="11.109375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="24.33203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="3" customFormat="1">
@@ -489,28 +500,28 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -518,7 +529,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C2" s="1">
         <v>9755314363</v>
@@ -534,28 +545,28 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C3" s="1">
         <v>9755314363</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="I3" s="1">
         <v>201265</v>
@@ -564,21 +575,21 @@
         <v>2415789944</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C4" s="1">
         <v>9755314363</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -589,9 +600,15 @@
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
+      <c r="A5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="1">
+        <v>9755314363</v>
+      </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -776,6 +793,7 @@
     <hyperlink ref="B2" r:id="rId2"/>
     <hyperlink ref="B3" r:id="rId3"/>
     <hyperlink ref="B4" r:id="rId4"/>
+    <hyperlink ref="B5" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -791,12 +809,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="13.109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -805,7 +823,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
@@ -815,12 +833,12 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/testdata/Odoodata.xlsx
+++ b/testdata/Odoodata.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>testcaseID</t>
   </si>
@@ -58,10 +58,7 @@
     <t>sanu123456</t>
   </si>
   <si>
-    <t>Rock-26</t>
-  </si>
-  <si>
-    <t>Rock-26-820</t>
+    <t>Rock-539</t>
   </si>
 </sst>
 </file>
@@ -445,7 +442,7 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -508,7 +505,7 @@
         <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>4</v>

--- a/testdata/Odoodata.xlsx
+++ b/testdata/Odoodata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2472" windowWidth="11820" windowHeight="3120"/>
+    <workbookView xWindow="0" yWindow="2472" windowWidth="11820" windowHeight="4188"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
   <si>
     <t>testcaseID</t>
   </si>
@@ -79,7 +79,13 @@
     <t>harry-1</t>
   </si>
   <si>
-    <t>harry-12</t>
+    <t>customersel_ID</t>
+  </si>
+  <si>
+    <t>harry-149</t>
+  </si>
+  <si>
+    <t>harry-126</t>
   </si>
 </sst>
 </file>
@@ -464,18 +470,18 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="17.0" collapsed="false"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="22.6640625" collapsed="false"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.0" collapsed="false"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="16.21875" collapsed="false"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="9.77734375" collapsed="false"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="11.0" collapsed="false"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="15.21875" collapsed="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="22.6640625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="16.21875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="9.77734375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="15.21875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="4" customFormat="1">
@@ -567,7 +573,9 @@
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>

--- a/testdata/Odoodata.xlsx
+++ b/testdata/Odoodata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="15210" windowHeight="3570"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="14715" windowHeight="3570"/>
   </bookViews>
   <sheets>
     <sheet name="verifysheet" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>createCustomer_ID</t>
   </si>
@@ -27,9 +27,6 @@
     <t>abdul@123</t>
   </si>
   <si>
-    <t>AmitArora-1</t>
-  </si>
-  <si>
     <t>AshokNagar</t>
   </si>
   <si>
@@ -45,59 +42,16 @@
     <t>abdr123@gmail.com</t>
   </si>
   <si>
-    <t>dfdfdsf</t>
-  </si>
-  <si>
-    <t>AmitArora-147</t>
-  </si>
-  <si>
-    <t>AmitArora-194</t>
-  </si>
-  <si>
-    <t>AmitArora-119</t>
-  </si>
-  <si>
-    <t>AmitArora-11</t>
-  </si>
-  <si>
-    <t>AmitArora-128</t>
-  </si>
-  <si>
-    <t>AmitArora-113</t>
-  </si>
-  <si>
-    <t>AmitArora-159</t>
-  </si>
-  <si>
-    <t>AmitArora-129</t>
-  </si>
-  <si>
-    <t>AmitArora-131</t>
-  </si>
-  <si>
-    <t>AmitArora-160</t>
-  </si>
-  <si>
-    <t>AmitArora-182</t>
-  </si>
-  <si>
-    <t>AmitArora-120</t>
-  </si>
-  <si>
-    <t>AmitArora-130</t>
-  </si>
-  <si>
-    <t>AmitArora-142</t>
-  </si>
-  <si>
-    <t>AmitArora-121</t>
+    <t>AmitArora-150</t>
+  </si>
+  <si>
+    <t>AmitArora-150854910</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -440,18 +394,18 @@
   <dimension ref="A2:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="18.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="24.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="14.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="23.140625" collapsed="true"/>
+    <col min="1" max="1" width="18.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="18.28515625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="13.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="23.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:9">
@@ -465,27 +419,27 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" t="s">
         <v>7</v>
-      </c>
-      <c r="I2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/testdata/Odoodata.xlsx
+++ b/testdata/Odoodata.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>testcaseID</t>
   </si>
@@ -59,6 +59,15 @@
   </si>
   <si>
     <t>Rock-539</t>
+  </si>
+  <si>
+    <t>Rock-539-345</t>
+  </si>
+  <si>
+    <t>Rock-539-345-161</t>
+  </si>
+  <si>
+    <t>Rock-539-345-161-19</t>
   </si>
 </sst>
 </file>
@@ -505,7 +514,7 @@
         <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>4</v>

--- a/testdata/Odoodata.xlsx
+++ b/testdata/Odoodata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="14835" windowHeight="3465"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14835" windowHeight="4155"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
   <si>
     <t>testcaseID</t>
   </si>
@@ -88,16 +88,34 @@
     <t>Pradeep-11</t>
   </si>
   <si>
-    <t>Pradeep-575</t>
-  </si>
-  <si>
     <t>deleteCustomer_ID</t>
   </si>
   <si>
-    <t>Pradeep-337</t>
-  </si>
-  <si>
-    <t>Pradeep-832</t>
+    <t>createOpportunity_ID</t>
+  </si>
+  <si>
+    <t>Pradeep-259</t>
+  </si>
+  <si>
+    <t>Mouse-517</t>
+  </si>
+  <si>
+    <t>Pradeep-316</t>
+  </si>
+  <si>
+    <t>createSalesTeam_ID</t>
+  </si>
+  <si>
+    <t>Rohan</t>
+  </si>
+  <si>
+    <t>Rohan-885</t>
+  </si>
+  <si>
+    <t>Rohan-383</t>
+  </si>
+  <si>
+    <t>Rohan-432</t>
   </si>
 </sst>
 </file>
@@ -105,7 +123,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -120,6 +138,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF222222"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -164,12 +188,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -475,14 +500,16 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="25.0" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="21.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="23.42578125" collapsed="true"/>
     <col min="3" max="3" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="22.85546875" collapsed="true"/>
     <col min="7" max="7" customWidth="true" width="12.140625" collapsed="true"/>
     <col min="10" max="10" customWidth="true" width="12.85546875" collapsed="true"/>
     <col min="11" max="11" customWidth="true" width="9.140625" collapsed="true"/>
@@ -552,8 +579,8 @@
       <c r="C3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>26</v>
+      <c r="D3" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>11</v>
@@ -579,7 +606,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>18</v>
@@ -587,9 +614,7 @@
       <c r="C4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -599,14 +624,24 @@
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
+      <c r="A5" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="B5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="1">
+        <v>5000</v>
+      </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -614,13 +649,27 @@
       <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
+      <c r="A6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -787,6 +836,7 @@
     <hyperlink ref="K3" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/testdata/Odoodata.xlsx
+++ b/testdata/Odoodata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16470" windowHeight="3060"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16335" windowHeight="3720"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
   <si>
     <t>testcaseID</t>
   </si>
@@ -40,9 +40,6 @@
     <t>moejoe91</t>
   </si>
   <si>
-    <t>sharonH</t>
-  </si>
-  <si>
     <t>54 th ave.</t>
   </si>
   <si>
@@ -56,12 +53,28 @@
   </si>
   <si>
     <t>create customer_ID</t>
+  </si>
+  <si>
+    <t>sharonH-830-539-29</t>
+  </si>
+  <si>
+    <t>delete_customerID</t>
+  </si>
+  <si>
+    <t>sharonH-830-539-29-32</t>
+  </si>
+  <si>
+    <t>sharonH-830-539-29-32-859</t>
+  </si>
+  <si>
+    <t>sharonH-830-539-29-32-859-882</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -447,16 +460,16 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="27.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="30.5703125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -499,7 +512,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>5</v>
@@ -508,22 +521,22 @@
         <v>6</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="H3" s="1">
         <v>252881</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J3" s="1">
         <v>8987656766</v>
@@ -533,17 +546,39 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
+      <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="1">
+        <v>252881</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="1">
+        <v>8987656766</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -732,6 +767,8 @@
     <hyperlink ref="K3" r:id="rId1"/>
     <hyperlink ref="B2" r:id="rId2"/>
     <hyperlink ref="B3" r:id="rId3"/>
+    <hyperlink ref="B4" r:id="rId4"/>
+    <hyperlink ref="K4" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/testdata/Odoodata.xlsx
+++ b/testdata/Odoodata.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
   <si>
     <t>testcaseID</t>
   </si>
@@ -46,28 +46,85 @@
     <t>ahtesham@gmail.com</t>
   </si>
   <si>
+    <t>createCustomer_ID</t>
+  </si>
+  <si>
+    <t>cool.sanu09@gmail.com</t>
+  </si>
+  <si>
+    <t>sanu123456</t>
+  </si>
+  <si>
+    <t>createSalesTeam_ID</t>
+  </si>
+  <si>
+    <t>Meeting</t>
+  </si>
+  <si>
+    <t>jason</t>
+  </si>
+  <si>
+    <t>jacson</t>
+  </si>
+  <si>
+    <t>jacson@gmail.com</t>
+  </si>
+  <si>
     <t>Rock</t>
   </si>
   <si>
-    <t>createCustomer_ID</t>
-  </si>
-  <si>
-    <t>cool.sanu09@gmail.com</t>
-  </si>
-  <si>
-    <t>sanu123456</t>
-  </si>
-  <si>
-    <t>Rock-539</t>
-  </si>
-  <si>
-    <t>Rock-539-345</t>
-  </si>
-  <si>
-    <t>Rock-539-345-161</t>
-  </si>
-  <si>
-    <t>Rock-539-345-161-19</t>
+    <t>Meeting-457</t>
+  </si>
+  <si>
+    <t>jacson-201</t>
+  </si>
+  <si>
+    <t>jacson@gmail.com-930</t>
+  </si>
+  <si>
+    <t>Meeting-457-544</t>
+  </si>
+  <si>
+    <t>jacson-201-605</t>
+  </si>
+  <si>
+    <t>jacson@gmail.com-930-27</t>
+  </si>
+  <si>
+    <t>Meeting-457-544-510</t>
+  </si>
+  <si>
+    <t>jacson-201-605-714</t>
+  </si>
+  <si>
+    <t>jacson@gmail.com-930-27-408</t>
+  </si>
+  <si>
+    <t>Meeting-457-544-510-346</t>
+  </si>
+  <si>
+    <t>jacson-201-605-714-949</t>
+  </si>
+  <si>
+    <t>jacson@gmail.com-930-27-408-594</t>
+  </si>
+  <si>
+    <t>Meeting-457-544-510-346-484</t>
+  </si>
+  <si>
+    <t>jacson-201-605-714-949-76</t>
+  </si>
+  <si>
+    <t>jacson@gmail.com-930-27-408-594-681</t>
+  </si>
+  <si>
+    <t>Meeting-457-544-510-346-484-30</t>
+  </si>
+  <si>
+    <t>jacson-201-605-714-949-76-152</t>
+  </si>
+  <si>
+    <t>jacson@gmail.com-930-27-408-594-681-945</t>
   </si>
 </sst>
 </file>
@@ -140,14 +197,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -451,7 +507,7 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -461,6 +517,7 @@
     <col min="3" max="3" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
     <col min="10" max="10" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
     <col min="11" max="11" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
   </cols>
@@ -489,10 +546,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -505,16 +562,16 @@
     </row>
     <row r="3" spans="1:11" customFormat="1">
       <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>4</v>
@@ -539,13 +596,27 @@
       </c>
     </row>
     <row r="4" spans="1:11" customFormat="1">
-      <c r="A4" s="1"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -749,9 +820,10 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="K3" r:id="rId1"/>
+    <hyperlink ref="F4" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/testdata/Odoodata.xlsx
+++ b/testdata/Odoodata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2472" windowWidth="18672" windowHeight="4356"/>
+    <workbookView xWindow="0" yWindow="2472" windowWidth="18456" windowHeight="8112"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
   <si>
     <t>testcaseID</t>
   </si>
@@ -67,34 +67,52 @@
     <t>pratap.ganesh27@gmail.com</t>
   </si>
   <si>
-    <t>delete_customer_ID</t>
+    <t>NehruPlace</t>
+  </si>
+  <si>
+    <t>Delhi</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Meera.Chopra@gamil.com</t>
+  </si>
+  <si>
+    <t>create_customer_ID</t>
+  </si>
+  <si>
+    <t>create_salesTeam_ID</t>
+  </si>
+  <si>
+    <t>Meeting_Ganesh</t>
+  </si>
+  <si>
+    <t>Ganesh</t>
+  </si>
+  <si>
+    <t>Meeting</t>
+  </si>
+  <si>
+    <t>create_opportunity_ID</t>
+  </si>
+  <si>
+    <t>Ganesh@pratap.com</t>
+  </si>
+  <si>
+    <t>2200-MacBook</t>
   </si>
   <si>
     <t>Sector-14</t>
   </si>
   <si>
-    <t>NehruPlace</t>
-  </si>
-  <si>
-    <t>Delhi</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>Meera.Chopra@gamil.com</t>
-  </si>
-  <si>
-    <t>create_customer_ID</t>
-  </si>
-  <si>
-    <t>create_salesteam_ID</t>
-  </si>
-  <si>
-    <t>Meera</t>
-  </si>
-  <si>
-    <t>Meera-929</t>
+    <t>2200-MacBook-2</t>
+  </si>
+  <si>
+    <t>2200-MacBook-2-4</t>
+  </si>
+  <si>
+    <t>2200-MacBook-2-4-3</t>
   </si>
 </sst>
 </file>
@@ -469,21 +487,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="18.44140625" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="19.77734375" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="25.109375" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="14.44140625" collapsed="true"/>
     <col min="5" max="5" customWidth="true" width="10.109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="11.109375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="18.44140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="14.77734375" collapsed="true"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="10.88671875" collapsed="true"/>
     <col min="10" max="10" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
     <col min="11" max="11" customWidth="true" width="24.33203125" collapsed="true"/>
@@ -545,7 +563,7 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>15</v>
@@ -554,19 +572,19 @@
         <v>9755314363</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="I3" s="1">
         <v>201265</v>
@@ -575,12 +593,12 @@
         <v>2415789944</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>15</v>
@@ -591,9 +609,15 @@
       <c r="D4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -601,7 +625,7 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>15</v>
@@ -609,8 +633,12 @@
       <c r="C5" s="1">
         <v>9755314363</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="1">
+        <v>4500000</v>
+      </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -774,26 +802,14 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="K3" r:id="rId1"/>
     <hyperlink ref="B2" r:id="rId2"/>
     <hyperlink ref="B3" r:id="rId3"/>
     <hyperlink ref="B4" r:id="rId4"/>
-    <hyperlink ref="B5" r:id="rId5"/>
+    <hyperlink ref="F4" r:id="rId5"/>
+    <hyperlink ref="B5" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/testdata/Odoodata.xlsx
+++ b/testdata/Odoodata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="14835" windowHeight="3555"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="14835" windowHeight="6420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
   <si>
     <t>testcaseID</t>
   </si>
@@ -28,9 +28,6 @@
     <t>CreateCustomer_ID</t>
   </si>
   <si>
-    <t>CreateOpportunityWithExitingCustomer_ID</t>
-  </si>
-  <si>
     <t>data1</t>
   </si>
   <si>
@@ -40,9 +37,6 @@
     <t>data2</t>
   </si>
   <si>
-    <t>Deep</t>
-  </si>
-  <si>
     <t>fashion Street</t>
   </si>
   <si>
@@ -61,7 +55,49 @@
     <t>deep@gmail.com</t>
   </si>
   <si>
-    <t>500 Keyboard</t>
+    <t>DeleteCustomer_ID</t>
+  </si>
+  <si>
+    <t>CreateOpportunity_ID</t>
+  </si>
+  <si>
+    <t>500 Keyboard and computer</t>
+  </si>
+  <si>
+    <t>CreatingSalesTeam_ID</t>
+  </si>
+  <si>
+    <t>pradeepsharma8850@gmail.com</t>
+  </si>
+  <si>
+    <t>SalesCall</t>
+  </si>
+  <si>
+    <t>SalesSMS</t>
+  </si>
+  <si>
+    <t>SalesMeeting</t>
+  </si>
+  <si>
+    <t>SalesTeam</t>
+  </si>
+  <si>
+    <t>Deep74</t>
+  </si>
+  <si>
+    <t>Sales965128</t>
+  </si>
+  <si>
+    <t>CreateActivity_ID</t>
+  </si>
+  <si>
+    <t>AutomationMeeting</t>
+  </si>
+  <si>
+    <t>Automation Meeting with Customer</t>
+  </si>
+  <si>
+    <t>Meeting</t>
   </si>
 </sst>
 </file>
@@ -114,11 +150,12 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -416,8 +453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -425,9 +462,10 @@
     <col min="1" max="1" width="40.42578125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="28.140625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="26.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="30.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="33.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="12" max="12" width="16.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
@@ -437,10 +475,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D1" s="3"/>
     </row>
@@ -449,7 +487,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2">
         <v>8527529100</v>
@@ -460,45 +498,45 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3">
         <v>8527529100</v>
       </c>
       <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" t="s">
         <v>7</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>8</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H3" t="s">
         <v>9</v>
-      </c>
-      <c r="G3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" t="s">
-        <v>11</v>
       </c>
       <c r="I3">
         <v>110049</v>
       </c>
       <c r="J3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K3">
         <v>7896541233</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4">
         <v>8527529100</v>
@@ -506,8 +544,71 @@
       <c r="D4" t="s">
         <v>14</v>
       </c>
-      <c r="E4">
-        <v>10000</v>
+      <c r="E4" s="4">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>8527529100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>8527529100</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>8527529100</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="8:8">
@@ -519,8 +620,14 @@
     <hyperlink ref="B2" r:id="rId2"/>
     <hyperlink ref="B3" r:id="rId3"/>
     <hyperlink ref="L3" r:id="rId4"/>
+    <hyperlink ref="B5" r:id="rId5"/>
+    <hyperlink ref="B6" r:id="rId6"/>
+    <hyperlink ref="E6" r:id="rId7"/>
+    <hyperlink ref="B7" r:id="rId8"/>
+    <hyperlink ref="E7" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId10"/>
 </worksheet>
 </file>
 

--- a/testdata/Odoodata.xlsx
+++ b/testdata/Odoodata.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>createCustomer_ID</t>
   </si>
@@ -46,12 +46,70 @@
   </si>
   <si>
     <t>AmitArora-150854910</t>
+  </si>
+  <si>
+    <t>My opportunity</t>
+  </si>
+  <si>
+    <t>Twenty 2TB hard Disk</t>
+  </si>
+  <si>
+    <t>salesmeet234@gmail.com</t>
+  </si>
+  <si>
+    <t>amar</t>
+  </si>
+  <si>
+    <t>9886750330</t>
+  </si>
+  <si>
+    <t>salesteam_ID</t>
+  </si>
+  <si>
+    <t>weamir-24@gmail.com</t>
+  </si>
+  <si>
+    <t>weamir-69</t>
+  </si>
+  <si>
+    <t>sales-meeting-5</t>
+  </si>
+  <si>
+    <t>weamir-22</t>
+  </si>
+  <si>
+    <t>weamir-22@gmail.com</t>
+  </si>
+  <si>
+    <t>weamir-19</t>
+  </si>
+  <si>
+    <t>weamir-19@gmail.com</t>
+  </si>
+  <si>
+    <t>weamir-3</t>
+  </si>
+  <si>
+    <t>weamir-3@gmail.com</t>
+  </si>
+  <si>
+    <t>weamir-11</t>
+  </si>
+  <si>
+    <t>weamir-11@gmail.com</t>
+  </si>
+  <si>
+    <t>weamir-97</t>
+  </si>
+  <si>
+    <t>weamir-97@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -391,21 +449,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:I3"/>
+  <dimension ref="A2:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.85546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="20.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18.28515625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="13.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="23.140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="25.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="16.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="8" max="9" customWidth="true" width="20.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:9">
@@ -442,10 +501,50 @@
         <v>8</v>
       </c>
     </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="C2" r:id="rId2"/>
+    <hyperlink ref="D5" r:id="rId3"/>
+    <hyperlink ref="E5" r:id="rId4"/>
+    <hyperlink ref="H5" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/testdata/Odoodata.xlsx
+++ b/testdata/Odoodata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2472" windowWidth="11820" windowHeight="4188"/>
+    <workbookView xWindow="0" yWindow="2472" windowWidth="12120" windowHeight="3120"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
   <si>
     <t>testcaseID</t>
   </si>
@@ -82,10 +82,55 @@
     <t>customersel_ID</t>
   </si>
   <si>
-    <t>harry-149</t>
-  </si>
-  <si>
-    <t>harry-126</t>
+    <t>pipeline_ID</t>
+  </si>
+  <si>
+    <t>100pendrive</t>
+  </si>
+  <si>
+    <t>shahzad</t>
+  </si>
+  <si>
+    <t>20000</t>
+  </si>
+  <si>
+    <t>salesteam_ID</t>
+  </si>
+  <si>
+    <t>achal</t>
+  </si>
+  <si>
+    <t>9211863489</t>
+  </si>
+  <si>
+    <t>sales:meeting</t>
+  </si>
+  <si>
+    <t>harry-120</t>
+  </si>
+  <si>
+    <t>abr16@gmail.com-2</t>
+  </si>
+  <si>
+    <t>nawazk-88</t>
+  </si>
+  <si>
+    <t>sadx182@gmai.com</t>
+  </si>
+  <si>
+    <t>ahetsamm-69</t>
+  </si>
+  <si>
+    <t>ahetsamm-31</t>
+  </si>
+  <si>
+    <t>abr16@gmail.com-20</t>
+  </si>
+  <si>
+    <t>nawazk-58</t>
+  </si>
+  <si>
+    <t>sadx182@gmai.com-10</t>
   </si>
 </sst>
 </file>
@@ -469,18 +514,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="17.0" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="22.6640625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="14.88671875" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="16.21875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="9.77734375" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="15.21875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="15.6640625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="20.33203125" collapsed="true"/>
+    <col min="8" max="9" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
     <col min="10" max="10" bestFit="true" customWidth="true" width="15.21875" collapsed="true"/>
   </cols>
   <sheetData>
@@ -574,7 +621,7 @@
         <v>20</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -587,10 +634,18 @@
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+      <c r="A5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -600,14 +655,30 @@
       <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="A6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -774,9 +845,11 @@
     <hyperlink ref="D3" r:id="rId2" display="abc12@gmail.com"/>
     <hyperlink ref="B3" r:id="rId3"/>
     <hyperlink ref="J3" r:id="rId4"/>
+    <hyperlink ref="G6" r:id="rId5"/>
+    <hyperlink ref="D6" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 

--- a/testdata/Odoodata.xlsx
+++ b/testdata/Odoodata.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="16035" windowHeight="6510"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
   <si>
     <t>testcaseID</t>
   </si>
@@ -30,10 +31,82 @@
     <t>validLogin_ID</t>
   </si>
   <si>
-    <t>diganta.sdp@gmail.com</t>
-  </si>
-  <si>
-    <t>diganta27</t>
+    <t>nawazzaidi2@gmail.com</t>
+  </si>
+  <si>
+    <t>nwz123zaidi</t>
+  </si>
+  <si>
+    <t>createCust_ID</t>
+  </si>
+  <si>
+    <t>Meerut</t>
+  </si>
+  <si>
+    <t>u.p</t>
+  </si>
+  <si>
+    <t>india</t>
+  </si>
+  <si>
+    <t>8279801585</t>
+  </si>
+  <si>
+    <t>data3</t>
+  </si>
+  <si>
+    <t>data4</t>
+  </si>
+  <si>
+    <t>data5</t>
+  </si>
+  <si>
+    <t>data6</t>
+  </si>
+  <si>
+    <t>data7</t>
+  </si>
+  <si>
+    <t>data8</t>
+  </si>
+  <si>
+    <t>data9</t>
+  </si>
+  <si>
+    <t>data10</t>
+  </si>
+  <si>
+    <t>Aatif</t>
+  </si>
+  <si>
+    <t>Aatifzaidi2@gmail.com</t>
+  </si>
+  <si>
+    <t>salesTeam_ID</t>
+  </si>
+  <si>
+    <t>Sales-Meeting</t>
+  </si>
+  <si>
+    <t>kanujiya343</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>8954764903</t>
+  </si>
+  <si>
+    <t>Amanz</t>
+  </si>
+  <si>
+    <t>aemxzanja1223@gmail.com</t>
+  </si>
+  <si>
+    <t>sahila</t>
+  </si>
+  <si>
+    <t>sahil54656@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -54,24 +127,17 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -79,39 +145,25 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -407,267 +459,139 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" customWidth="1"/>
+    <col min="2" max="2" width="28.42578125" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3">
+        <v>234</v>
+      </c>
+      <c r="F3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3">
+        <v>250002</v>
+      </c>
+      <c r="I3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>24</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="K3" r:id="rId3"/>
+    <hyperlink ref="D4" r:id="rId4"/>
+    <hyperlink ref="G4" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/testdata/Odoodata.xlsx
+++ b/testdata/Odoodata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16335" windowHeight="3720"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15915" windowHeight="6060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="33">
   <si>
     <t>testcaseID</t>
   </si>
@@ -55,19 +55,67 @@
     <t>create customer_ID</t>
   </si>
   <si>
-    <t>sharonH-830-539-29</t>
-  </si>
-  <si>
     <t>delete_customerID</t>
   </si>
   <si>
-    <t>sharonH-830-539-29-32</t>
-  </si>
-  <si>
-    <t>sharonH-830-539-29-32-859</t>
-  </si>
-  <si>
     <t>sharonH-830-539-29-32-859-882</t>
+  </si>
+  <si>
+    <t>createSalesTeam_ID</t>
+  </si>
+  <si>
+    <t>Email2</t>
+  </si>
+  <si>
+    <t>Kevin</t>
+  </si>
+  <si>
+    <t>sharonH-830-539-29-142</t>
+  </si>
+  <si>
+    <t>54 th ave.-930</t>
+  </si>
+  <si>
+    <t>Lakecity-795</t>
+  </si>
+  <si>
+    <t>100 macs</t>
+  </si>
+  <si>
+    <t>Kevin@gmail.com</t>
+  </si>
+  <si>
+    <t>clovis</t>
+  </si>
+  <si>
+    <t>createOpportunity_ID</t>
+  </si>
+  <si>
+    <t>Email2-778</t>
+  </si>
+  <si>
+    <t>Kevin-541</t>
+  </si>
+  <si>
+    <t>Kevin@gmail.com-516</t>
+  </si>
+  <si>
+    <t>Email2-778-764</t>
+  </si>
+  <si>
+    <t>Kevin-541-997</t>
+  </si>
+  <si>
+    <t>Kevin@gmail.com-516-662</t>
+  </si>
+  <si>
+    <t>Email2-778-764-955</t>
+  </si>
+  <si>
+    <t>Kevin-541-997-548</t>
+  </si>
+  <si>
+    <t>Kevin@gmail.com-516-662-668</t>
   </si>
 </sst>
 </file>
@@ -460,7 +508,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -521,7 +569,7 @@
         <v>6</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>7</v>
@@ -547,7 +595,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>5</v>
@@ -556,13 +604,13 @@
         <v>6</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>9</v>
@@ -581,25 +629,51 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
+      <c r="I5" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="A6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1000</v>
+      </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -769,6 +843,9 @@
     <hyperlink ref="B3" r:id="rId3"/>
     <hyperlink ref="B4" r:id="rId4"/>
     <hyperlink ref="K4" r:id="rId5"/>
+    <hyperlink ref="B5" r:id="rId6"/>
+    <hyperlink ref="B6" r:id="rId7"/>
+    <hyperlink ref="F5" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/testdata/Odoodata.xlsx
+++ b/testdata/Odoodata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2472" windowWidth="18456" windowHeight="8112"/>
+    <workbookView xWindow="0" yWindow="2472" windowWidth="19056" windowHeight="8112" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,12 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1:N26"/>
+  <oleSize ref="H1:U23"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="58">
   <si>
     <t>testcaseID</t>
   </si>
@@ -55,15 +55,6 @@
     <t>data10</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>CustomersInfo</t>
-  </si>
-  <si>
-    <t>address</t>
-  </si>
-  <si>
     <t>pratap.ganesh27@gmail.com</t>
   </si>
   <si>
@@ -85,42 +76,128 @@
     <t>create_salesTeam_ID</t>
   </si>
   <si>
-    <t>Meeting_Ganesh</t>
-  </si>
-  <si>
-    <t>Ganesh</t>
-  </si>
-  <si>
     <t>Meeting</t>
   </si>
   <si>
     <t>create_opportunity_ID</t>
   </si>
   <si>
-    <t>Ganesh@pratap.com</t>
-  </si>
-  <si>
-    <t>2200-MacBook</t>
-  </si>
-  <si>
     <t>Sector-14</t>
   </si>
   <si>
-    <t>2200-MacBook-2</t>
-  </si>
-  <si>
-    <t>2200-MacBook-2-4</t>
-  </si>
-  <si>
-    <t>2200-MacBook-2-4-3</t>
+    <t>Ganesh_Meeting@hiTech.com</t>
+  </si>
+  <si>
+    <t>Ganesh_Meeting</t>
+  </si>
+  <si>
+    <t>data11</t>
+  </si>
+  <si>
+    <t>data12</t>
+  </si>
+  <si>
+    <t>data13</t>
+  </si>
+  <si>
+    <t>data14</t>
+  </si>
+  <si>
+    <t>data15</t>
+  </si>
+  <si>
+    <t>data16</t>
+  </si>
+  <si>
+    <t>data17</t>
+  </si>
+  <si>
+    <t>data18</t>
+  </si>
+  <si>
+    <t>Crish_SMS</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Leon_Email@hiTech.com</t>
+  </si>
+  <si>
+    <t>Leon_Email</t>
+  </si>
+  <si>
+    <t>Call</t>
+  </si>
+  <si>
+    <t>Jill_Call@hiTech.com</t>
+  </si>
+  <si>
+    <t>Jill_Call</t>
+  </si>
+  <si>
+    <t>SMS</t>
+  </si>
+  <si>
+    <t>Crish_SMS@hiTech.com</t>
+  </si>
+  <si>
+    <t>create_scheduleActivity_ID</t>
+  </si>
+  <si>
+    <t>Ganesh_A</t>
+  </si>
+  <si>
+    <t>Meera_A</t>
+  </si>
+  <si>
+    <t>Clair_A</t>
+  </si>
+  <si>
+    <t>Wasker_A</t>
+  </si>
+  <si>
+    <t>Leon_A</t>
+  </si>
+  <si>
+    <t>Jill_A</t>
+  </si>
+  <si>
+    <t>Crish_A</t>
+  </si>
+  <si>
+    <t>1200_MacBook</t>
+  </si>
+  <si>
+    <t>create_user_ID</t>
+  </si>
+  <si>
+    <t>invalidLogin_ID</t>
+  </si>
+  <si>
+    <t>no.userid.given@gmail.com</t>
+  </si>
+  <si>
+    <t>Meeting_M</t>
+  </si>
+  <si>
+    <t>Call_C</t>
+  </si>
+  <si>
+    <t>Email_E</t>
+  </si>
+  <si>
+    <t>SMS_S</t>
+  </si>
+  <si>
+    <t>Emai_El</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -135,6 +212,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -179,14 +262,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -194,11 +298,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -487,27 +586,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:T8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="19.77734375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="25.109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="14.44140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="10.109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="18.44140625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="14.77734375" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="10.88671875" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="24.33203125" collapsed="true"/>
+    <col min="1" max="1" width="23.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="25.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="9.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="26.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="14.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="5.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="7.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="22" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="8.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="6.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="18.44140625" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="6.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="7.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="20.88671875" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="9.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="15.77734375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1">
+    <row r="1" spans="1:19" s="1" customFormat="1" ht="19.95" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -541,324 +650,681 @@
       <c r="K1" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="1" t="s">
+      <c r="L1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="19.95" customHeight="1">
+      <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="6">
+        <v>9755314363</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+    </row>
+    <row r="3" spans="1:19" ht="19.95" customHeight="1">
+      <c r="A3" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="6">
+        <v>1010101010</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+    </row>
+    <row r="4" spans="1:19" s="2" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="6">
+        <v>9755314363</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="1">
+      <c r="I4" s="6">
+        <v>201265</v>
+      </c>
+      <c r="J4" s="6">
+        <v>2415789944</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+    </row>
+    <row r="5" spans="1:19" s="10" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="6">
         <v>9755314363</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="1">
+      <c r="D5" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="6">
+        <v>4500000</v>
+      </c>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+    </row>
+    <row r="6" spans="1:19" ht="19.95" customHeight="1">
+      <c r="A6" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="6">
         <v>9755314363</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D6" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+    </row>
+    <row r="7" spans="1:19" ht="19.95" customHeight="1">
+      <c r="A7" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="6">
+        <v>9755314363</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+    </row>
+    <row r="8" spans="1:19" ht="19.95" customHeight="1">
+      <c r="A8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="6">
+        <v>9755314363</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="1">
-        <v>201265</v>
-      </c>
-      <c r="J3" s="1">
-        <v>2415789944</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="1">
-        <v>9755314363</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="1">
-        <v>9755314363</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="1">
-        <v>4500000</v>
-      </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
+      <c r="H8" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="M8" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="P8" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q8" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="R8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="S8" s="6" t="s">
+        <v>32</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K3" r:id="rId1"/>
+    <hyperlink ref="K4" r:id="rId1"/>
     <hyperlink ref="B2" r:id="rId2"/>
-    <hyperlink ref="B3" r:id="rId3"/>
-    <hyperlink ref="B4" r:id="rId4"/>
-    <hyperlink ref="F4" r:id="rId5"/>
+    <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B8" r:id="rId4"/>
+    <hyperlink ref="F8" r:id="rId5"/>
     <hyperlink ref="B5" r:id="rId6"/>
+    <hyperlink ref="J8" r:id="rId7"/>
+    <hyperlink ref="N8" r:id="rId8"/>
+    <hyperlink ref="R8" r:id="rId9"/>
+    <hyperlink ref="B6" r:id="rId10"/>
+    <hyperlink ref="B7" r:id="rId11"/>
+    <hyperlink ref="B3" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId13"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:S10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="13.109375" collapsed="true"/>
+    <col min="1" max="1" width="23.44140625" style="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="25.109375" style="12" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11" style="12" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.88671875" style="12" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="9.109375" style="12" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="26.33203125" style="12" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="14.77734375" style="12" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="5.6640625" style="12" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="7.109375" style="12" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="22" style="12" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.33203125" style="12" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="8.44140625" style="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="6.77734375" style="12" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="18.44140625" style="12" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="7" style="12" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="6.6640625" style="12" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="7.109375" style="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="20.88671875" style="12" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="9.44140625" style="12" customWidth="1" collapsed="1"/>
+    <col min="20" max="16384" width="8.88671875" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:19" ht="19.95" customHeight="1">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="19.95" customHeight="1">
+      <c r="A2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="6">
+        <v>9755314363</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+    </row>
+    <row r="3" spans="1:19" ht="19.95" customHeight="1">
+      <c r="A3" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="6">
+        <v>1010101010</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+    </row>
+    <row r="4" spans="1:19" ht="19.95" customHeight="1">
+      <c r="A4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="6">
+        <v>9755314363</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" t="s">
+      <c r="G4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="6">
+        <v>201265</v>
+      </c>
+      <c r="J4" s="6">
+        <v>2415789944</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="13"/>
+    </row>
+    <row r="5" spans="1:19" ht="19.95" customHeight="1">
+      <c r="A5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-    </row>
+      <c r="C5" s="6">
+        <v>9755314363</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="6">
+        <v>4500000</v>
+      </c>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+    </row>
+    <row r="6" spans="1:19" ht="19.95" customHeight="1">
+      <c r="A6" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="6">
+        <v>9755314363</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+    </row>
+    <row r="7" spans="1:19" ht="19.95" customHeight="1">
+      <c r="A7" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="6">
+        <v>9755314363</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+    </row>
+    <row r="8" spans="1:19" ht="19.95" customHeight="1">
+      <c r="A8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="6">
+        <v>9755314363</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="P8" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q8" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="R8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="S8" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="19.95" customHeight="1"/>
+    <row r="10" spans="1:19" ht="19.95" customHeight="1"/>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="K4" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B8" r:id="rId4"/>
+    <hyperlink ref="F8" r:id="rId5"/>
+    <hyperlink ref="B5" r:id="rId6"/>
+    <hyperlink ref="J8" r:id="rId7"/>
+    <hyperlink ref="N8" r:id="rId8"/>
+    <hyperlink ref="R8" r:id="rId9"/>
+    <hyperlink ref="B6" r:id="rId10"/>
+    <hyperlink ref="B7" r:id="rId11"/>
+    <hyperlink ref="B3" r:id="rId12"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId13"/>
 </worksheet>
 </file>
 

--- a/testdata/Odoodata.xlsx
+++ b/testdata/Odoodata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2472" windowWidth="19056" windowHeight="8112" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2472" windowWidth="19284" windowHeight="4356"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,12 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="H1:U23"/>
+  <oleSize ref="A3:K13"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="55">
   <si>
     <t>testcaseID</t>
   </si>
@@ -76,9 +76,6 @@
     <t>create_salesTeam_ID</t>
   </si>
   <si>
-    <t>Meeting</t>
-  </si>
-  <si>
     <t>create_opportunity_ID</t>
   </si>
   <si>
@@ -118,27 +115,18 @@
     <t>Crish_SMS</t>
   </si>
   <si>
-    <t>Email</t>
-  </si>
-  <si>
     <t>Leon_Email@hiTech.com</t>
   </si>
   <si>
     <t>Leon_Email</t>
   </si>
   <si>
-    <t>Call</t>
-  </si>
-  <si>
     <t>Jill_Call@hiTech.com</t>
   </si>
   <si>
     <t>Jill_Call</t>
   </si>
   <si>
-    <t>SMS</t>
-  </si>
-  <si>
     <t>Crish_SMS@hiTech.com</t>
   </si>
   <si>
@@ -191,6 +179,9 @@
   </si>
   <si>
     <t>Emai_El</t>
+  </si>
+  <si>
+    <t>create_activityType_ID</t>
   </si>
 </sst>
 </file>
@@ -262,13 +253,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -282,14 +270,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -586,10 +582,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T8"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="A1:S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -601,7 +597,7 @@
     <col min="5" max="5" width="9.109375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="26.33203125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="14.77734375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="5.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="7.44140625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="7.109375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="22" customWidth="1" collapsed="1"/>
     <col min="11" max="11" width="23.33203125" bestFit="1" customWidth="1" collapsed="1"/>
@@ -617,160 +613,160 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="1" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="R1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="S1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="S1" s="5" t="s">
-        <v>31</v>
-      </c>
     </row>
     <row r="2" spans="1:19" ht="19.95" customHeight="1">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="5">
         <v>9755314363</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
     </row>
     <row r="3" spans="1:19" ht="19.95" customHeight="1">
-      <c r="A3" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C3" s="6">
+      <c r="A3" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="5">
         <v>1010101010</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
     </row>
     <row r="4" spans="1:19" s="2" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <v>9755314363</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="6" t="s">
+      <c r="D4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="5">
         <v>201265</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J4" s="5">
         <v>2415789944</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="K4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="M4" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="N4" s="8" t="s">
-        <v>45</v>
+      <c r="L4" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>41</v>
       </c>
       <c r="O4" s="11"/>
       <c r="P4" s="11"/>
@@ -778,161 +774,214 @@
       <c r="R4" s="11"/>
       <c r="S4" s="11"/>
     </row>
-    <row r="5" spans="1:19" s="10" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="7" t="s">
+    <row r="5" spans="1:19" s="8" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <v>9755314363</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="5">
+        <v>4500000</v>
+      </c>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10"/>
+    </row>
+    <row r="6" spans="1:19" ht="19.95" customHeight="1">
+      <c r="A6" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="5">
+        <v>9755314363</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E5" s="6">
-        <v>4500000</v>
-      </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-    </row>
-    <row r="6" spans="1:19" ht="19.95" customHeight="1">
-      <c r="A6" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="9" t="s">
+      <c r="E6" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+    </row>
+    <row r="7" spans="1:19" ht="19.95" customHeight="1">
+      <c r="A7" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C7" s="5">
         <v>9755314363</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-    </row>
-    <row r="7" spans="1:19" ht="19.95" customHeight="1">
-      <c r="A7" s="8" t="s">
+      <c r="D7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
+    </row>
+    <row r="8" spans="1:19" ht="19.95" customHeight="1">
+      <c r="A8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="5">
+        <v>9755314363</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="M8" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q8" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="R8" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="S8" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C9" s="5">
         <v>9755314363</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D9" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
-    </row>
-    <row r="8" spans="1:19" ht="19.95" customHeight="1">
-      <c r="A8" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="6">
-        <v>9755314363</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="M8" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="N8" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="O8" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="P8" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q8" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="R8" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="S8" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="F9" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="14"/>
+      <c r="S9" s="14"/>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="D2:S2"/>
+    <mergeCell ref="F5:S5"/>
+    <mergeCell ref="O4:S4"/>
+    <mergeCell ref="H7:S7"/>
+    <mergeCell ref="D3:S3"/>
+    <mergeCell ref="H6:S6"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink ref="K4" r:id="rId1"/>
     <hyperlink ref="B2" r:id="rId2"/>
@@ -946,9 +995,10 @@
     <hyperlink ref="B6" r:id="rId10"/>
     <hyperlink ref="B7" r:id="rId11"/>
     <hyperlink ref="B3" r:id="rId12"/>
+    <hyperlink ref="B9" r:id="rId13"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId13"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId14"/>
 </worksheet>
 </file>
 
@@ -956,359 +1006,405 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A1:S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="23.44140625" style="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="25.109375" style="12" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11" style="12" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.88671875" style="12" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="9.109375" style="12" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="26.33203125" style="12" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="14.77734375" style="12" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="5.6640625" style="12" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="7.109375" style="12" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="22" style="12" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.33203125" style="12" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="8.44140625" style="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="6.77734375" style="12" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="18.44140625" style="12" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="7" style="12" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="6.6640625" style="12" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="7.109375" style="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="20.88671875" style="12" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="9.44140625" style="12" customWidth="1" collapsed="1"/>
-    <col min="20" max="16384" width="8.88671875" style="12"/>
+    <col min="1" max="1" width="23.44140625" style="9" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="25.109375" style="9" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11" style="9" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.88671875" style="9" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="9.109375" style="9" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="26.33203125" style="9" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="14.77734375" style="9" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="7.44140625" style="9" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="7.109375" style="9" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="22" style="9" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.33203125" style="9" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="8.44140625" style="9" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="6.77734375" style="9" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="18.44140625" style="9" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="7" style="9" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="6.6640625" style="9" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="7.109375" style="9" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="20.88671875" style="9" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="9.44140625" style="9" customWidth="1" collapsed="1"/>
+    <col min="20" max="16384" width="8.88671875" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="19.95" customHeight="1">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="R1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="S1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="S1" s="5" t="s">
+    </row>
+    <row r="2" spans="1:19" ht="19.95" customHeight="1">
+      <c r="A2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="5">
+        <v>9755314363</v>
+      </c>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+    </row>
+    <row r="3" spans="1:19" ht="19.95" customHeight="1">
+      <c r="A3" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="5">
+        <v>1010101010</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+    </row>
+    <row r="4" spans="1:19" ht="19.95" customHeight="1">
+      <c r="A4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="5">
+        <v>9755314363</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="5">
+        <v>201265</v>
+      </c>
+      <c r="J4" s="5">
+        <v>2415789944</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+    </row>
+    <row r="5" spans="1:19" ht="19.95" customHeight="1">
+      <c r="A5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="5">
+        <v>9755314363</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="5">
+        <v>4500000</v>
+      </c>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10"/>
+    </row>
+    <row r="6" spans="1:19" ht="19.95" customHeight="1">
+      <c r="A6" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="5">
+        <v>9755314363</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+    </row>
+    <row r="7" spans="1:19" ht="19.95" customHeight="1">
+      <c r="A7" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="5">
+        <v>9755314363</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
+    </row>
+    <row r="8" spans="1:19" ht="19.95" customHeight="1">
+      <c r="A8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="5">
+        <v>9755314363</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q8" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="R8" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="S8" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="19.95" customHeight="1">
-      <c r="A2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="7" t="s">
+    <row r="9" spans="1:19" ht="19.95" customHeight="1">
+      <c r="A9" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C9" s="5">
         <v>9755314363</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-    </row>
-    <row r="3" spans="1:19" ht="19.95" customHeight="1">
-      <c r="A3" s="6" t="s">
+      <c r="D9" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="E9" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="6">
-        <v>1010101010</v>
-      </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-    </row>
-    <row r="4" spans="1:19" ht="19.95" customHeight="1">
-      <c r="A4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="6">
-        <v>9755314363</v>
-      </c>
-      <c r="D4" s="6" t="s">
+      <c r="I9" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="6">
-        <v>201265</v>
-      </c>
-      <c r="J4" s="6">
-        <v>2415789944</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="13"/>
-      <c r="S4" s="13"/>
-    </row>
-    <row r="5" spans="1:19" ht="19.95" customHeight="1">
-      <c r="A5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="6">
-        <v>9755314363</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E5" s="6">
-        <v>4500000</v>
-      </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-    </row>
-    <row r="6" spans="1:19" ht="19.95" customHeight="1">
-      <c r="A6" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="6">
-        <v>9755314363</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
-    </row>
-    <row r="7" spans="1:19" ht="19.95" customHeight="1">
-      <c r="A7" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="6">
-        <v>9755314363</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
-    </row>
-    <row r="8" spans="1:19" ht="19.95" customHeight="1">
-      <c r="A8" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="6">
-        <v>9755314363</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="L8" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="N8" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="O8" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="P8" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q8" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="R8" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="S8" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" ht="19.95" customHeight="1"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="14"/>
+      <c r="S9" s="14"/>
+    </row>
     <row r="10" spans="1:19" ht="19.95" customHeight="1"/>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="H6:S6"/>
+    <mergeCell ref="D2:S2"/>
+    <mergeCell ref="D3:S3"/>
+    <mergeCell ref="H7:S7"/>
+    <mergeCell ref="O4:S4"/>
+    <mergeCell ref="F5:S5"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink ref="K4" r:id="rId1"/>
     <hyperlink ref="B2" r:id="rId2"/>
@@ -1322,9 +1418,10 @@
     <hyperlink ref="B6" r:id="rId10"/>
     <hyperlink ref="B7" r:id="rId11"/>
     <hyperlink ref="B3" r:id="rId12"/>
+    <hyperlink ref="B9" r:id="rId13"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId13"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId14"/>
 </worksheet>
 </file>
 

--- a/testdata/Odoodata.xlsx
+++ b/testdata/Odoodata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="15645" windowHeight="6435"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="14835" windowHeight="6435"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,12 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <oleSize ref="A1:K20"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="53">
   <si>
     <t>testcaseID</t>
   </si>
@@ -46,85 +46,136 @@
     <t>ahtesham@gmail.com</t>
   </si>
   <si>
+    <t>cool.sanu09@gmail.com</t>
+  </si>
+  <si>
+    <t>sanu123456</t>
+  </si>
+  <si>
     <t>createCustomer_ID</t>
   </si>
   <si>
-    <t>cool.sanu09@gmail.com</t>
-  </si>
-  <si>
-    <t>sanu123456</t>
-  </si>
-  <si>
-    <t>createSalesTeam_ID</t>
+    <t>createSalesMeet_ID</t>
+  </si>
+  <si>
+    <t>rohit@gmail.com</t>
+  </si>
+  <si>
+    <t>Jason</t>
+  </si>
+  <si>
+    <t>createSalesCall_ID</t>
+  </si>
+  <si>
+    <t>Call</t>
+  </si>
+  <si>
+    <t>Brook</t>
+  </si>
+  <si>
+    <t>brook@gmail.com</t>
+  </si>
+  <si>
+    <t>bready</t>
+  </si>
+  <si>
+    <t>createSalesEmail_ID</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Jackson</t>
+  </si>
+  <si>
+    <t>jackson@gmail.com</t>
+  </si>
+  <si>
+    <t>Jackey</t>
+  </si>
+  <si>
+    <t>createSalesSms_ID</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>Brenda</t>
+  </si>
+  <si>
+    <t>brenda@gmail.com</t>
+  </si>
+  <si>
+    <t>Breda</t>
+  </si>
+  <si>
+    <t>createOpportunity_ID</t>
+  </si>
+  <si>
+    <t>Rock-510</t>
+  </si>
+  <si>
+    <t>Meet</t>
+  </si>
+  <si>
+    <t>Rohit</t>
+  </si>
+  <si>
+    <t>Brook-673</t>
+  </si>
+  <si>
+    <t>100MackBook-822-309-260</t>
   </si>
   <si>
     <t>Meeting</t>
   </si>
   <si>
-    <t>jason</t>
-  </si>
-  <si>
-    <t>jacson</t>
-  </si>
-  <si>
-    <t>jacson@gmail.com</t>
+    <t>Meeting Activity</t>
+  </si>
+  <si>
+    <t>“Meeting Activity”</t>
+  </si>
+  <si>
+    <t>scheduledMeetingActivity_ID</t>
+  </si>
+  <si>
+    <t>Meeting is done Proceed to next</t>
+  </si>
+  <si>
+    <t>No activities planned.</t>
   </si>
   <si>
     <t>Rock</t>
   </si>
   <si>
-    <t>Meeting-457</t>
-  </si>
-  <si>
-    <t>jacson-201</t>
-  </si>
-  <si>
-    <t>jacson@gmail.com-930</t>
-  </si>
-  <si>
-    <t>Meeting-457-544</t>
-  </si>
-  <si>
-    <t>jacson-201-605</t>
-  </si>
-  <si>
-    <t>jacson@gmail.com-930-27</t>
-  </si>
-  <si>
-    <t>Meeting-457-544-510</t>
-  </si>
-  <si>
-    <t>jacson-201-605-714</t>
-  </si>
-  <si>
-    <t>jacson@gmail.com-930-27-408</t>
-  </si>
-  <si>
-    <t>Meeting-457-544-510-346</t>
-  </si>
-  <si>
-    <t>jacson-201-605-714-949</t>
-  </si>
-  <si>
-    <t>jacson@gmail.com-930-27-408-594</t>
-  </si>
-  <si>
-    <t>Meeting-457-544-510-346-484</t>
-  </si>
-  <si>
-    <t>jacson-201-605-714-949-76</t>
-  </si>
-  <si>
-    <t>jacson@gmail.com-930-27-408-594-681</t>
-  </si>
-  <si>
-    <t>Meeting-457-544-510-346-484-30</t>
-  </si>
-  <si>
-    <t>jacson-201-605-714-949-76-152</t>
-  </si>
-  <si>
-    <t>jacson@gmail.com-930-27-408-594-681-945</t>
+    <t>100MackBook</t>
+  </si>
+  <si>
+    <t>scheduledCallActivity_ID</t>
+  </si>
+  <si>
+    <t>Call Activity</t>
+  </si>
+  <si>
+    <t>“Call Activity”</t>
+  </si>
+  <si>
+    <t>Rock-11</t>
+  </si>
+  <si>
+    <t>100MackBook-486</t>
+  </si>
+  <si>
+    <t>Rock-11-222</t>
+  </si>
+  <si>
+    <t>100MackBook-486-318</t>
+  </si>
+  <si>
+    <t>Rock-11-222-530</t>
+  </si>
+  <si>
+    <t>100MackBook-486-318-937</t>
   </si>
 </sst>
 </file>
@@ -132,7 +183,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -147,12 +198,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF222222"/>
-      <name val="Consolas"/>
-      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -203,7 +248,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -504,21 +549,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="24.85546875" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="27.7109375" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="22.7109375" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="30.42578125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="19.28515625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
     <col min="11" max="11" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
   </cols>
   <sheetData>
@@ -546,10 +593,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -560,18 +607,18 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11" customFormat="1">
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>4</v>
@@ -595,112 +642,197 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:11" customFormat="1">
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="D4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="F4" s="2" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="2"/>
-    </row>
-    <row r="5" spans="1:11" customFormat="1">
-      <c r="A5" s="1"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" customFormat="1">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-    </row>
-    <row r="7" spans="1:11" customFormat="1">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:11" customFormat="1">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="1">
+        <v>500000</v>
+      </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:11" customFormat="1">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I9" t="s">
+        <v>38</v>
+      </c>
+      <c r="J9" t="s">
+        <v>41</v>
+      </c>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:11" customFormat="1">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="5">
+        <v>43775</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:11" customFormat="1">
+    <row r="11" spans="1:11">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -713,7 +845,7 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:11" customFormat="1">
+    <row r="12" spans="1:11">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -726,7 +858,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:11" customFormat="1">
+    <row r="13" spans="1:11">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -739,7 +871,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:11" customFormat="1">
+    <row r="14" spans="1:11">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -752,7 +884,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:11" customFormat="1">
+    <row r="15" spans="1:11">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -765,7 +897,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="1:11" customFormat="1">
+    <row r="16" spans="1:11">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -778,7 +910,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="1:11" customFormat="1">
+    <row r="17" spans="1:11">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -791,7 +923,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="1:11" customFormat="1">
+    <row r="18" spans="1:11">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -804,26 +936,23 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
     </row>
-    <row r="19" spans="1:11" customFormat="1">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="K3" r:id="rId1"/>
-    <hyperlink ref="F4" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId2"/>
+    <hyperlink ref="F5" r:id="rId3"/>
+    <hyperlink ref="F6" r:id="rId4"/>
+    <hyperlink ref="F7" r:id="rId5"/>
+    <hyperlink ref="B5" r:id="rId6"/>
+    <hyperlink ref="B6" r:id="rId7"/>
+    <hyperlink ref="B7" r:id="rId8"/>
+    <hyperlink ref="F4" r:id="rId9"/>
+    <hyperlink ref="B8" r:id="rId10"/>
+    <hyperlink ref="B9" r:id="rId11"/>
+    <hyperlink ref="B10" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId13"/>
 </worksheet>
 </file>
 

--- a/testdata/Odoodata.xlsx
+++ b/testdata/Odoodata.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14250" windowHeight="6165"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>testcaseID</t>
   </si>
@@ -34,6 +35,27 @@
   </si>
   <si>
     <t>diganta27</t>
+  </si>
+  <si>
+    <t>createCustomer_ID</t>
+  </si>
+  <si>
+    <t>Gabriel</t>
+  </si>
+  <si>
+    <t>4th Street, Richmond Road</t>
+  </si>
+  <si>
+    <t>Bangalore</t>
+  </si>
+  <si>
+    <t>Karnataka</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>gabriel@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -407,19 +429,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B3" sqref="B3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -438,7 +463,7 @@
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -457,20 +482,44 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="1">
+        <v>560060</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="1">
+        <v>8123672550</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -483,7 +532,7 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -496,7 +545,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -509,7 +558,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -522,7 +571,7 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -535,7 +584,7 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -548,7 +597,7 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -561,7 +610,7 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -574,7 +623,7 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -587,7 +636,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -600,7 +649,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -613,7 +662,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -626,7 +675,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -668,6 +717,8 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="K3" r:id="rId2"/>
+    <hyperlink ref="B3" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/testdata/Odoodata.xlsx
+++ b/testdata/Odoodata.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="58">
   <si>
     <t>testcaseID</t>
   </si>
@@ -145,12 +145,6 @@
     <t>No activities planned.</t>
   </si>
   <si>
-    <t>Rock</t>
-  </si>
-  <si>
-    <t>100MackBook</t>
-  </si>
-  <si>
     <t>scheduledCallActivity_ID</t>
   </si>
   <si>
@@ -160,22 +154,43 @@
     <t>“Call Activity”</t>
   </si>
   <si>
-    <t>Rock-11</t>
-  </si>
-  <si>
-    <t>100MackBook-486</t>
-  </si>
-  <si>
-    <t>Rock-11-222</t>
-  </si>
-  <si>
-    <t>100MackBook-486-318</t>
-  </si>
-  <si>
-    <t>Rock-11-222-530</t>
-  </si>
-  <si>
-    <t>100MackBook-486-318-937</t>
+    <t>Call Activity is done Proceed to next</t>
+  </si>
+  <si>
+    <t>scheduledEmailActivity_ID</t>
+  </si>
+  <si>
+    <t>Email Activity</t>
+  </si>
+  <si>
+    <t>Jackson-508</t>
+  </si>
+  <si>
+    <t>“Email Activity”</t>
+  </si>
+  <si>
+    <t>Email Activity is done Proceed to next</t>
+  </si>
+  <si>
+    <t>createLostReason_ID</t>
+  </si>
+  <si>
+    <t>Customer is Not Interested</t>
+  </si>
+  <si>
+    <t>100 ipad</t>
+  </si>
+  <si>
+    <t>Ganesh</t>
+  </si>
+  <si>
+    <t>Ganesh-826</t>
+  </si>
+  <si>
+    <t>Ganesh-826-3</t>
+  </si>
+  <si>
+    <t>100 ipad-748</t>
   </si>
 </sst>
 </file>
@@ -549,10 +564,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -560,11 +575,12 @@
     <col min="1" max="1" bestFit="true" customWidth="true" width="27.7109375" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="22.7109375" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="29.140625" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="30.42578125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="24.42578125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="19.28515625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="35.140625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="33.42578125" collapsed="true"/>
     <col min="10" max="10" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
     <col min="11" max="11" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
   </cols>
@@ -618,7 +634,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>4</v>
@@ -718,7 +734,7 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" customFormat="1">
       <c r="A7" s="1" t="s">
         <v>25</v>
       </c>
@@ -745,7 +761,7 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" customFormat="1">
       <c r="A8" s="1" t="s">
         <v>30</v>
       </c>
@@ -756,13 +772,13 @@
         <v>10</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F8" s="1">
-        <v>500000</v>
+        <v>50000</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -770,7 +786,7 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" customFormat="1">
       <c r="A9" s="1" t="s">
         <v>39</v>
       </c>
@@ -803,9 +819,9 @@
       </c>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" customFormat="1">
       <c r="A10" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>9</v>
@@ -817,7 +833,7 @@
         <v>16</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F10" s="5">
         <v>43775</v>
@@ -826,39 +842,69 @@
         <v>34</v>
       </c>
       <c r="H10" t="s">
+        <v>44</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J10" t="s">
+        <v>41</v>
+      </c>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="1:11" customFormat="1">
+      <c r="A11" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
+      <c r="B11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" t="s">
+        <v>49</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="I11" t="s">
+        <v>41</v>
+      </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
+    <row r="12" spans="1:11" customFormat="1">
+      <c r="A12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
+      <c r="F12" s="2"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" customFormat="1">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -871,7 +917,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" customFormat="1">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -884,7 +930,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" customFormat="1">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -897,7 +943,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" customFormat="1">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -910,7 +956,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" customFormat="1">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -923,7 +969,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" customFormat="1">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -936,6 +982,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
     </row>
+    <row r="19" spans="1:11" customFormat="1"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="K3" r:id="rId1"/>
@@ -950,9 +997,11 @@
     <hyperlink ref="B8" r:id="rId10"/>
     <hyperlink ref="B9" r:id="rId11"/>
     <hyperlink ref="B10" r:id="rId12"/>
+    <hyperlink ref="B11" r:id="rId13"/>
+    <hyperlink ref="B12" r:id="rId14"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId13"/>
+  <pageSetup orientation="portrait" r:id="rId15"/>
 </worksheet>
 </file>
 
